--- a/thresholds/IGCSE/bahasa-indonesia/bahasa-indonesia-thresholds.xlsx
+++ b/thresholds/IGCSE/bahasa-indonesia/bahasa-indonesia-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,6 +654,47 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>P1 50</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>90</v>
+      </c>
+      <c r="C6" t="n">
+        <v>81</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73</v>
+      </c>
+      <c r="E6" t="n">
+        <v>64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>55</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46</v>
+      </c>
+      <c r="H6" t="n">
+        <v>37</v>
+      </c>
+      <c r="I6" t="n">
+        <v>28</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>June 2022</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
